--- a/isoReport/docs/solicitudes 2025.xlsx
+++ b/isoReport/docs/solicitudes 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aagricola-my.sharepoint.com/personal/inavarro_atlanticaagricola_com/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aagricola-my.sharepoint.com/personal/inavarro_atlanticaagricola_com/Documents/Escritorio/Repos/isoReport/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85CEAF1-9D20-4A8F-888E-70E4F183F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C85CEAF1-9D20-4A8F-888E-70E4F183F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90966077-507F-40F2-8A7E-2615542DD15A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD4F1998-36EF-4D48-AA38-9FBF9CA733C2}"/>
+    <workbookView minimized="1" xWindow="3480" yWindow="6840" windowWidth="7080" windowHeight="4080" xr2:uid="{BD4F1998-36EF-4D48-AA38-9FBF9CA733C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -870,7 +870,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29A7C973-1D2F-437F-B5BA-170313F47CCB}" name="Tabla1345" displayName="Tabla1345" ref="A1:U47" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" dataCellStyle="Normal">
-  <autoFilter ref="A1:U47" xr:uid="{29A7C973-1D2F-437F-B5BA-170313F47CCB}"/>
   <tableColumns count="21">
     <tableColumn id="12" xr3:uid="{8AFDBB9E-349A-4C3D-AB23-953C67B4FF02}" name="Nº Solicitud" dataDxfId="20"/>
     <tableColumn id="1" xr3:uid="{3E4FB025-D73D-4739-98AD-A864020E1715}" name="SOLICITANTE" dataDxfId="19" dataCellStyle="Normal"/>
@@ -1217,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35619040-3AE7-48DE-99EE-87262FE3173A}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
